--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
@@ -13345,7 +13345,7 @@
   <dimension ref="A1:EU245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:AY16"/>
+      <selection activeCell="H17" sqref="H17:AY20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
